--- a/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="E11" s="98" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F11" s="103" t="n">
@@ -4948,8 +4948,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -5259,17 +5259,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE5CB0D-D117-4EFF-830C-8AC095710912}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689D5FA4-3375-461B-B892-B7351AE35B55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B065FFDE-9AD1-41EC-980C-2C53820CF5BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B5C611-297A-4CBA-9A99-36F260AFC958}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7543E26-2587-4338-B70C-F62A98AC7C75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA42146-E9ED-4A20-BB80-66EB81A596D5}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{901D0478-5762-4078-A4FA-92BFBB2C8F08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C85D13C-CCFF-41E5-AD1D-1D92846A8BA4}"/>
 </file>
--- a/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
@@ -5259,17 +5259,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689D5FA4-3375-461B-B892-B7351AE35B55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47969C7D-853E-44A7-95D9-FCA5FD2433D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B5C611-297A-4CBA-9A99-36F260AFC958}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC6DB60-3AF1-4CAD-8F3A-DD7F12B3202D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA42146-E9ED-4A20-BB80-66EB81A596D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D996C3-371E-4877-9921-395ECE04A42F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C85D13C-CCFF-41E5-AD1D-1D92846A8BA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB88BFEE-F8D1-4913-AC80-AC6BEA7DDF84}"/>
 </file>
--- a/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/AEF_CMA6_Switzerland 2025 V1_comment.syntax_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/10.syntax.passed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_89A0FC60C9EB564E58D4A9A01E9D339A462ED74B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E744826D-73E1-4D44-A457-E584FDC3E5FC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_89A0FC60C9EB564E58D4A9A01E9D339A462ED74B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAD3BF1-A93B-744A-927A-62E34D3C87FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="47440" windowHeight="21560" tabRatio="618" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="47440" windowHeight="21560" tabRatio="618" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1367,10 +1367,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1378,6 +1374,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2613,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3583,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,54 +3616,54 @@
       <c r="A1"/>
     </row>
     <row r="3" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
     </row>
     <row r="4" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
       <c r="R4" s="69"/>
-      <c r="S4" s="130" t="s">
+      <c r="S4" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="T4" s="131"/>
+      <c r="T4" s="134"/>
       <c r="U4" s="36"/>
     </row>
     <row r="5" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4616,10 +4616,29 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4901,39 +4920,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC6DB60-3AF1-4CAD-8F3A-DD7F12B3202D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D996C3-371E-4877-9921-395ECE04A42F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB88BFEE-F8D1-4913-AC80-AC6BEA7DDF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47969C7D-853E-44A7-95D9-FCA5FD2433D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4953,28 +4971,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB88BFEE-F8D1-4913-AC80-AC6BEA7DDF84}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC6DB60-3AF1-4CAD-8F3A-DD7F12B3202D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D996C3-371E-4877-9921-395ECE04A42F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>